--- a/GATEWAY/A1#111#ITAMEDICALXX/Critex/Meditex/4/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ITAMEDICALXX/Critex/Meditex/4/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0B3Vzr79vD6P9ZUVVMG5DUUh6MWc\MedITEX\FSE 2.0\Accreditamento\FILES ACCREDITAMENTO MEDITEX\risultati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0B3Vzr79vD6P9ZUVVMG5DUUh6MWc\MedITEX\FSE 2.0\Accreditamento\FILES ACCREDITAMENTO MEDITEX\RSA\risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05FBA73-A8FE-44B6-B13B-EA307F940277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF0FF62-F195-4CAA-8453-776E4F88DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="894">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4553,9 +4553,6 @@
 0100: ceId":"UNKNOWN_WORKFLOW_ID"}</t>
   </si>
   <si>
-    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto alla lista dei messaggi inviati senza che venga evidenziato il corretto invio (Luce verde) o l'errato invio (luce rossa). Il messaggio può essere inviato in un secondo momento</t>
-  </si>
-  <si>
     <t>2024-01-23T09:37:58Z</t>
   </si>
   <si>
@@ -4636,6 +4633,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.a53e7bd7cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto alla lista dei messaggi inviati senza che venga evidenziato il corretto invio (Luce verde) o la ricezione di un errore (luce rossa). L'applicativo inserisce il documento in una coda che si occupa di eseguire in automatico un nuovo tentativo di invio. </t>
+  </si>
+  <si>
+    <t>L'utente ha a disposizione la lista dei messaggi inviati. Per quelli non andati a buon fine viene segnalata la descrizione dell'errore. Una volta che l'errore è stato corretto il messaggio può essere nuovamente inviato da parte dell'utente.</t>
   </si>
 </sst>
 </file>
@@ -7565,10 +7568,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
+      <selection pane="bottomRight" activeCell="P170" sqref="P170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8811,7 +8814,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="25.8" customHeight="1">
+    <row r="39" spans="1:20" ht="25.8" hidden="1" customHeight="1">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -9103,7 +9106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="14.25" customHeight="1">
+    <row r="47" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A47" s="20">
         <v>40</v>
       </c>
@@ -9403,7 +9406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="55" spans="1:20" ht="14.25" customHeight="1">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>137</v>
       </c>
       <c r="P55" s="37" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -12787,7 +12790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="14.25" customHeight="1">
+    <row r="154" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A154" s="20">
         <v>147</v>
       </c>
@@ -12807,13 +12810,13 @@
         <v>45314</v>
       </c>
       <c r="G154" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="H154" s="38" t="s">
         <v>873</v>
       </c>
-      <c r="H154" s="38" t="s">
+      <c r="I154" s="38" t="s">
         <v>874</v>
-      </c>
-      <c r="I154" s="38" t="s">
-        <v>875</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>137</v>
@@ -13003,13 +13006,13 @@
         <v>45314</v>
       </c>
       <c r="G159" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="H159" s="24" t="s">
         <v>876</v>
       </c>
-      <c r="H159" s="24" t="s">
+      <c r="I159" s="24" t="s">
         <v>877</v>
-      </c>
-      <c r="I159" s="24" t="s">
-        <v>878</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>137</v>
@@ -13022,13 +13025,13 @@
         <v>137</v>
       </c>
       <c r="N159" s="37" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>137</v>
       </c>
       <c r="P159" s="25" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -13099,7 +13102,7 @@
         <v>825</v>
       </c>
       <c r="K161" s="37" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
@@ -13323,13 +13326,13 @@
         <v>45314</v>
       </c>
       <c r="G167" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="H167" s="24" t="s">
         <v>881</v>
       </c>
-      <c r="H167" s="24" t="s">
+      <c r="I167" s="24" t="s">
         <v>882</v>
-      </c>
-      <c r="I167" s="24" t="s">
-        <v>883</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>137</v>
@@ -13342,13 +13345,13 @@
         <v>137</v>
       </c>
       <c r="N167" s="37" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O167" s="37" t="s">
         <v>137</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -13381,7 +13384,7 @@
         <v>825</v>
       </c>
       <c r="K168" s="37" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
@@ -13453,13 +13456,13 @@
         <v>45314</v>
       </c>
       <c r="G170" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="H170" s="24" t="s">
         <v>886</v>
       </c>
-      <c r="H170" s="24" t="s">
+      <c r="I170" s="24" t="s">
         <v>887</v>
-      </c>
-      <c r="I170" s="24" t="s">
-        <v>888</v>
       </c>
       <c r="J170" s="25" t="s">
         <v>137</v>
@@ -13472,13 +13475,13 @@
         <v>137</v>
       </c>
       <c r="N170" s="37" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O170" s="37" t="s">
         <v>137</v>
       </c>
       <c r="P170" s="25" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="Q170" s="25"/>
       <c r="R170" s="26"/>
@@ -20651,7 +20654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="14.25" customHeight="1">
+    <row r="381" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A381" s="20">
         <v>374</v>
       </c>
@@ -20671,13 +20674,13 @@
         <v>45314</v>
       </c>
       <c r="G381" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="H381" s="24" t="s">
         <v>890</v>
       </c>
-      <c r="H381" s="24" t="s">
+      <c r="I381" s="38" t="s">
         <v>891</v>
-      </c>
-      <c r="I381" s="38" t="s">
-        <v>892</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>137</v>
@@ -25416,6 +25419,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T383" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="152"/>
+        <filter val="160"/>
+        <filter val="163"/>
+        <filter val="48"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
@@ -25425,11 +25436,6 @@
       <filters>
         <filter val="RSA"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="7">

--- a/GATEWAY/A1#111#ITAMEDICALXX/Critex/Meditex/4/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ITAMEDICALXX/Critex/Meditex/4/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0B3Vzr79vD6P9ZUVVMG5DUUh6MWc\MedITEX\FSE 2.0\Accreditamento\FILES ACCREDITAMENTO MEDITEX\RSA+LAB\risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F143765-8FC7-4252-B439-3149D233B1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC429AE-969A-491E-998A-91FD189C3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4581,112 +4581,10 @@
     <t>L'utente ha a disposizione la lista dei messaggi inviati. Per quelli non andati a buon fine viene segnalata la descrizione dell'errore. Una volta che l'errore è stato corretto il messaggio può essere nuovamente inviato.</t>
   </si>
   <si>
-    <t>0000: {"traceID":"3c42d95eb21b4449","spanID":"3c42d95eb21b4449","type"
-0040: :"/msg/jwt-validation","title":"Campo token JWT non valido.","de
-0080: tail":"Il campo purpose_of_use non .. valorizzato","status":403,
-00c0: "instance":"/jwt-mandatory-field-missing","workflowInstanceId":"
-0100: UNKNOWN_WORKFLOW_ID"}</t>
-  </si>
-  <si>
-    <t>2024-01-23T11:04:12Z</t>
-  </si>
-  <si>
-    <t>3c42d95eb21b4449</t>
-  </si>
-  <si>
-    <t>2024-01-23T10:55:57Z</t>
-  </si>
-  <si>
-    <t>7bcc5c49007a633f</t>
-  </si>
-  <si>
-    <t>0000: {"traceID":"7bcc5c49007a633f","spanID":"7bcc5c49007a633f","type"
-0040: :"/msg/jwt-validation","title":"Campo token JWT non valido.","de
-0080: tail":"Il codice fiscale nel campo sub non .. corretto","status"
-00c0: :403,"instance":"/jwt-mandatory-field-malformed","workflowInstan
-0100: ceId":"UNKNOWN_WORKFLOW_ID"}</t>
-  </si>
-  <si>
-    <t>2024-01-23T09:37:58Z</t>
-  </si>
-  <si>
-    <t>9294dabcd3aed493</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.fa842e0295^^^^urn:ihe:iti:xdw:2013:workflowInstanceIdz</t>
-  </si>
-  <si>
-    <t>2024-01-23T09:38:54Z</t>
-  </si>
-  <si>
-    <t>154ade452b334a6d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.f4a7ef6efe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0000: {"traceID":"154ade452b334a6d","spanID":"154ade452b334a6d","type"
-0040: :"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-4
-0080: 4| Il codice fiscale 'PRVCTT01A41L219g' cittadino ed operatore d
-00c0: eve essere costituito da 16 cifre [A-Z0-9]{16}]","status":422,"i
-0100: nstance":"/validation/error","workflowInstanceId":"2.16.840.1.11
-0140: 3883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84
-0180: e065998e7776dc4a5af.f4a7ef6efe^^^^urn:ihe:iti:xdw:2013:workflowI
-01c0: nstanceId"}</t>
-  </si>
-  <si>
     <t>NON APPLICABILE PERCHE’ IN MEDITEX IL TAG CITY è SEMPRE PRESENTE NELLA STRUTTURA DEL CDA2 PRODOTTO</t>
   </si>
   <si>
-    <t>2024-01-23T10:07:09Z</t>
-  </si>
-  <si>
-    <t>0170678de1856a39</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.35fb22e5ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0000: {"traceID":"0170678de1856a39","spanID":"0170678de1856a39","type"
-0040: :"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1
-0080: ,-1 cvc-minLength-valid: Value '' with length = '0' is not facet
-00c0: -valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1
-0100:  cvc-attribute.3: The value '' of attribute 'displayName' on ele
-0140: ment 'code' is not valid with respect to its type, 'st'.","statu
-0180: s":400,"instance":"/validation/error","workflowInstanceId":"2.16
-01c0: .840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac06
-0200: 7df7a7e84e065998e7776dc4a5af.35fb22e5ff^^^^urn:ihe:iti:xdw:2013:
-0240: workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>NON APPLICABILE PERCHE’ IN MEDITEX LA SEZIONE REFERTO E’ SEMPRE PRESENTE NELLA STRUTTURA DEL CDA2 PRODOTTO</t>
-  </si>
-  <si>
-    <t>2024-01-23T10:34:18Z</t>
-  </si>
-  <si>
-    <t>5ac6d8fad5616930</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.6f244bfffe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0000: {"traceID":"5ac6d8fad5616930","spanID":"5ac6d8fad5616930","type"
-0040: :"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b
-0080: 3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'e
-00c0: ntry']","status":422,"instance":"/validation/error","workflowIns
-0100: tanceId":"2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebd
-0140: d2d787c459ac067df7a7e84e065998e7776dc4a5af.6f244bfffe^^^^urn:ihe
-0180: :iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
-    <t>2024-01-23T09:36:42Z</t>
-  </si>
-  <si>
-    <t>15b87bd7e9ceda22</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.a53e7bd7cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto alla lista dei messaggi inviati senza che venga evidenziato il corretto invio (Luce verde) o la ricezione di un errore (luce rossa). L'applicativo inserisce il documento in una coda che si occupa di eseguire in automatico un nuovo tentativo di invio. </t>
@@ -4821,6 +4719,108 @@
   </si>
   <si>
     <t xml:space="preserve"> I CAMPI CONTENUTI NELL’ELEMENTO &lt;inFulfillmentOf&gt; NON VENGONO GESTITI IN MEDITEX PER IL DOCUMENTO RSA.</t>
+  </si>
+  <si>
+    <t>2024-02-22T10:49:08Z</t>
+  </si>
+  <si>
+    <t>0000: {"traceID":"b33f637e2e1c0114","spanID":"b33f637e2e1c0114","type"
+0040: :"/msg/jwt-validation","title":"Campo token JWT non valido.","de
+0080: tail":"Il campo purpose_of_use non .. valorizzato","status":403,
+00c0: "instance":"/jwt-mandatory-field-missing","workflowInstanceId":"
+0100: UNKNOWN_WORKFLOW_ID"}</t>
+  </si>
+  <si>
+    <t>2024-02-22T10:52:19Z</t>
+  </si>
+  <si>
+    <t>b33f637e2e1c0114</t>
+  </si>
+  <si>
+    <t>029adc32f0f19428</t>
+  </si>
+  <si>
+    <t>0000: {"traceID":"029adc32f0f19428","spanID":"029adc32f0f19428","type"
+0040: :"/msg/jwt-validation","title":"Campo token JWT non valido.","de
+0080: tail":"Il codice fiscale nel campo sub non .. corretto","status"
+00c0: :403,"instance":"/jwt-mandatory-field-malformed","workflowInstan
+0100: ceId":"UNKNOWN_WORKFLOW_ID"}</t>
+  </si>
+  <si>
+    <t>2024-02-22T09:26:05Z</t>
+  </si>
+  <si>
+    <t>45f5b70c451991de</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.68844073a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-22T09:29:41Z</t>
+  </si>
+  <si>
+    <t>63dafd3be640e066</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.3bc11799d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0000: {"traceID":"63dafd3be640e066","spanID":"63dafd3be640e066","type"
+0040: :"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-4
+0080: 4| Il codice fiscale 'PRVCTT01A41L219g' cittadino ed operatore d
+00c0: eve essere costituito da 16 cifre [A-Z0-9]{16}]","status":422,"i
+0100: nstance":"/validation/error","workflowInstanceId":"2.16.840.1.11
+0140: 3883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84
+0180: e065998e7776dc4a5af.3bc11799d5^^^^urn:ihe:iti:xdw:2013:workflowI
+01c0: nstanceId"}</t>
+  </si>
+  <si>
+    <t>2024-02-22T10:33:38Z</t>
+  </si>
+  <si>
+    <t>4f1731895fc8aab9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.246902b19c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0000: {"traceID":"4f1731895fc8aab9","spanID":"4f1731895fc8aab9","type"
+0040: :"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1
+0080: ,-1 cvc-minLength-valid: Value '' with length = '0' is not facet
+00c0: -valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1
+0100:  cvc-attribute.3: The value '' of attribute 'displayName' on ele
+0140: ment 'code' is not valid with respect to its type, 'st'.","statu
+0180: s":400,"instance":"/validation/error","workflowInstanceId":"2.16
+01c0: .840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac06
+0200: 7df7a7e84e065998e7776dc4a5af.246902b19c^^^^urn:ihe:iti:xdw:2013:
+0240: workflowInstanceId"}</t>
+  </si>
+  <si>
+    <t>2024-02-22T10:43:54Z</t>
+  </si>
+  <si>
+    <t>7c9bd3cfa3fbc267</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.40e202e756^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0000: {"traceID":"7c9bd3cfa3fbc267","spanID":"7c9bd3cfa3fbc267","type"
+0040: :"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b
+0080: 3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'e
+00c0: ntry']","status":422,"instance":"/validation/error","workflowIns
+0100: tanceId":"2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebd
+0140: d2d787c459ac067df7a7e84e065998e7776dc4a5af.40e202e756^^^^urn:ihe
+0180: :iti:xdw:2013:workflowInstanceId"}</t>
+  </si>
+  <si>
+    <t>2024-02-22T09:16:05Z</t>
+  </si>
+  <si>
+    <t>491ff59eae8bad2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f37c2e09307325d28ffebdd2d787c459ac067df7a7e84e065998e7776dc4a5af.e23e694dc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7764,10 +7764,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A155" sqref="A155"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8024,7 +8024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>824</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
@@ -8062,7 +8062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>824</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -8100,7 +8100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>824</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -8138,7 +8138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>824</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -8176,7 +8176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>824</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -8910,14 +8910,14 @@
       <c r="E35" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="39">
         <v>45342</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>861</v>
@@ -8933,7 +8933,7 @@
         <v>137</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>907</v>
+        <v>883</v>
       </c>
       <c r="O35" s="25" t="s">
         <v>137</v>
@@ -9067,13 +9067,13 @@
         <v>103</v>
       </c>
       <c r="F39" s="39">
-        <v>45314</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>864</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>865</v>
+        <v>45344</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>897</v>
       </c>
       <c r="I39" s="36" t="s">
         <v>861</v>
@@ -9088,8 +9088,8 @@
       <c r="M39" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="N39" s="37" t="s">
-        <v>863</v>
+      <c r="N39" s="25" t="s">
+        <v>895</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>137</v>
@@ -9222,14 +9222,14 @@
       <c r="E43" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="39">
         <v>45342</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>861</v>
@@ -9245,7 +9245,7 @@
         <v>137</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="O43" s="25" t="s">
         <v>137</v>
@@ -9379,13 +9379,13 @@
         <v>121</v>
       </c>
       <c r="F47" s="39">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>866</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>867</v>
+        <v>896</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>898</v>
       </c>
       <c r="I47" s="36" t="s">
         <v>861</v>
@@ -9400,8 +9400,8 @@
       <c r="M47" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="N47" s="37" t="s">
-        <v>868</v>
+      <c r="N47" s="25" t="s">
+        <v>899</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>137</v>
@@ -9553,7 +9553,7 @@
         <v>137</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26" t="s">
@@ -9707,7 +9707,7 @@
         <v>137</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -9826,7 +9826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>52</v>
       </c>
@@ -9880,17 +9880,17 @@
       <c r="E60" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="39">
         <v>45342</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>137</v>
@@ -9903,13 +9903,13 @@
         <v>137</v>
       </c>
       <c r="N60" s="25" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
       <c r="O60" s="25" t="s">
         <v>137</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="Q60" s="25"/>
       <c r="R60" s="26"/>
@@ -9918,7 +9918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>54</v>
       </c>
@@ -9934,7 +9934,7 @@
       <c r="E61" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="39"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
@@ -9956,7 +9956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>55</v>
       </c>
@@ -9972,7 +9972,7 @@
       <c r="E62" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
@@ -9980,7 +9980,7 @@
         <v>824</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -9994,7 +9994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>56</v>
       </c>
@@ -10010,7 +10010,7 @@
       <c r="E63" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="23"/>
+      <c r="F63" s="39"/>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
       <c r="I63" s="24"/>
@@ -10032,7 +10032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>57</v>
       </c>
@@ -10048,7 +10048,7 @@
       <c r="E64" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="39"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
@@ -10070,7 +10070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>58</v>
       </c>
@@ -10086,7 +10086,7 @@
       <c r="E65" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="39"/>
       <c r="G65" s="24"/>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
@@ -10094,7 +10094,7 @@
         <v>824</v>
       </c>
       <c r="K65" s="41" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
@@ -10124,17 +10124,17 @@
       <c r="E66" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="39">
         <v>45342</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>137</v>
@@ -10147,13 +10147,13 @@
         <v>137</v>
       </c>
       <c r="N66" s="25" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="O66" s="25" t="s">
         <v>137</v>
       </c>
       <c r="P66" s="25" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
@@ -10178,17 +10178,17 @@
       <c r="E67" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="39">
         <v>45342</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>137</v>
@@ -10201,13 +10201,13 @@
         <v>137</v>
       </c>
       <c r="N67" s="25" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
       <c r="O67" s="25" t="s">
         <v>137</v>
       </c>
       <c r="P67" s="25" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
@@ -10216,7 +10216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>61</v>
       </c>
@@ -10232,7 +10232,7 @@
       <c r="E68" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="39"/>
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24"/>
@@ -10240,7 +10240,7 @@
         <v>824</v>
       </c>
       <c r="K68" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -10254,7 +10254,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>62</v>
       </c>
@@ -10270,7 +10270,7 @@
       <c r="E69" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="39"/>
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
@@ -10278,7 +10278,7 @@
         <v>824</v>
       </c>
       <c r="K69" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
@@ -10308,7 +10308,7 @@
       <c r="E70" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="23"/>
+      <c r="F70" s="39"/>
       <c r="G70" s="24"/>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
@@ -10342,7 +10342,7 @@
       <c r="E71" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F71" s="23"/>
+      <c r="F71" s="39"/>
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
@@ -10376,7 +10376,7 @@
       <c r="E72" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F72" s="23"/>
+      <c r="F72" s="39"/>
       <c r="G72" s="24"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
@@ -10410,7 +10410,7 @@
       <c r="E73" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="39"/>
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
@@ -10444,7 +10444,7 @@
       <c r="E74" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="39"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
@@ -10478,7 +10478,7 @@
       <c r="E75" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="39"/>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
@@ -10512,7 +10512,7 @@
       <c r="E76" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="39"/>
       <c r="G76" s="24"/>
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
@@ -10546,7 +10546,7 @@
       <c r="E77" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="39"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
@@ -10580,7 +10580,7 @@
       <c r="E78" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="39"/>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
@@ -10614,7 +10614,7 @@
       <c r="E79" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="23"/>
+      <c r="F79" s="39"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
@@ -10648,7 +10648,7 @@
       <c r="E80" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="F80" s="23"/>
+      <c r="F80" s="39"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
@@ -10682,7 +10682,7 @@
       <c r="E81" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="23"/>
+      <c r="F81" s="39"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
@@ -10716,7 +10716,7 @@
       <c r="E82" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F82" s="23"/>
+      <c r="F82" s="39"/>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
@@ -10750,7 +10750,7 @@
       <c r="E83" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F83" s="23"/>
+      <c r="F83" s="39"/>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
@@ -10784,7 +10784,7 @@
       <c r="E84" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F84" s="23"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
@@ -10818,7 +10818,7 @@
       <c r="E85" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F85" s="23"/>
+      <c r="F85" s="39"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
@@ -10852,7 +10852,7 @@
       <c r="E86" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F86" s="23"/>
+      <c r="F86" s="39"/>
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
@@ -10886,7 +10886,7 @@
       <c r="E87" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F87" s="23"/>
+      <c r="F87" s="39"/>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
@@ -10920,7 +10920,7 @@
       <c r="E88" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F88" s="23"/>
+      <c r="F88" s="39"/>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
@@ -10954,7 +10954,7 @@
       <c r="E89" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="23"/>
+      <c r="F89" s="39"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
       <c r="I89" s="24"/>
@@ -10988,7 +10988,7 @@
       <c r="E90" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F90" s="23"/>
+      <c r="F90" s="39"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
@@ -11022,7 +11022,7 @@
       <c r="E91" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="F91" s="23"/>
+      <c r="F91" s="39"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
@@ -11056,7 +11056,7 @@
       <c r="E92" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F92" s="23"/>
+      <c r="F92" s="39"/>
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
       <c r="I92" s="24"/>
@@ -11090,7 +11090,7 @@
       <c r="E93" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F93" s="23"/>
+      <c r="F93" s="39"/>
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
@@ -11124,7 +11124,7 @@
       <c r="E94" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="F94" s="23"/>
+      <c r="F94" s="39"/>
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
@@ -11158,7 +11158,7 @@
       <c r="E95" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F95" s="23"/>
+      <c r="F95" s="39"/>
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
@@ -11192,7 +11192,7 @@
       <c r="E96" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="F96" s="23"/>
+      <c r="F96" s="39"/>
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
@@ -11226,7 +11226,7 @@
       <c r="E97" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F97" s="23"/>
+      <c r="F97" s="39"/>
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
@@ -11260,7 +11260,7 @@
       <c r="E98" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F98" s="23"/>
+      <c r="F98" s="39"/>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
@@ -11294,7 +11294,7 @@
       <c r="E99" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="F99" s="23"/>
+      <c r="F99" s="39"/>
       <c r="G99" s="24"/>
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
@@ -11328,7 +11328,7 @@
       <c r="E100" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="F100" s="23"/>
+      <c r="F100" s="39"/>
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
       <c r="I100" s="24"/>
@@ -11362,7 +11362,7 @@
       <c r="E101" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="F101" s="23"/>
+      <c r="F101" s="39"/>
       <c r="G101" s="24"/>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
@@ -11396,7 +11396,7 @@
       <c r="E102" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F102" s="23"/>
+      <c r="F102" s="39"/>
       <c r="G102" s="24"/>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
@@ -11430,7 +11430,7 @@
       <c r="E103" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F103" s="23"/>
+      <c r="F103" s="39"/>
       <c r="G103" s="24"/>
       <c r="H103" s="24"/>
       <c r="I103" s="24"/>
@@ -11464,7 +11464,7 @@
       <c r="E104" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F104" s="23"/>
+      <c r="F104" s="39"/>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
       <c r="I104" s="24"/>
@@ -11498,7 +11498,7 @@
       <c r="E105" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="F105" s="23"/>
+      <c r="F105" s="39"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
@@ -11532,7 +11532,7 @@
       <c r="E106" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="F106" s="23"/>
+      <c r="F106" s="39"/>
       <c r="G106" s="24"/>
       <c r="H106" s="24"/>
       <c r="I106" s="24"/>
@@ -11566,7 +11566,7 @@
       <c r="E107" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F107" s="23"/>
+      <c r="F107" s="39"/>
       <c r="G107" s="24"/>
       <c r="H107" s="24"/>
       <c r="I107" s="24"/>
@@ -11600,7 +11600,7 @@
       <c r="E108" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F108" s="23"/>
+      <c r="F108" s="39"/>
       <c r="G108" s="24"/>
       <c r="H108" s="24"/>
       <c r="I108" s="24"/>
@@ -11634,7 +11634,7 @@
       <c r="E109" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="F109" s="23"/>
+      <c r="F109" s="39"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
@@ -11668,7 +11668,7 @@
       <c r="E110" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F110" s="23"/>
+      <c r="F110" s="39"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
@@ -11702,7 +11702,7 @@
       <c r="E111" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F111" s="23"/>
+      <c r="F111" s="39"/>
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
@@ -11736,7 +11736,7 @@
       <c r="E112" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="F112" s="23"/>
+      <c r="F112" s="39"/>
       <c r="G112" s="24"/>
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
@@ -11770,7 +11770,7 @@
       <c r="E113" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="F113" s="23"/>
+      <c r="F113" s="39"/>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
@@ -11804,7 +11804,7 @@
       <c r="E114" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="F114" s="23"/>
+      <c r="F114" s="39"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
@@ -11838,7 +11838,7 @@
       <c r="E115" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F115" s="23"/>
+      <c r="F115" s="39"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
@@ -11872,7 +11872,7 @@
       <c r="E116" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F116" s="23"/>
+      <c r="F116" s="39"/>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
@@ -11906,7 +11906,7 @@
       <c r="E117" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F117" s="23"/>
+      <c r="F117" s="39"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
@@ -11940,7 +11940,7 @@
       <c r="E118" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F118" s="23"/>
+      <c r="F118" s="39"/>
       <c r="G118" s="24"/>
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
@@ -11974,7 +11974,7 @@
       <c r="E119" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="F119" s="23"/>
+      <c r="F119" s="39"/>
       <c r="G119" s="24"/>
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
@@ -12008,7 +12008,7 @@
       <c r="E120" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="F120" s="23"/>
+      <c r="F120" s="39"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
@@ -12042,7 +12042,7 @@
       <c r="E121" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="F121" s="23"/>
+      <c r="F121" s="39"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
@@ -12076,7 +12076,7 @@
       <c r="E122" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F122" s="23"/>
+      <c r="F122" s="39"/>
       <c r="G122" s="24"/>
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
@@ -12110,7 +12110,7 @@
       <c r="E123" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="F123" s="23"/>
+      <c r="F123" s="39"/>
       <c r="G123" s="24"/>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
@@ -12144,7 +12144,7 @@
       <c r="E124" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F124" s="23"/>
+      <c r="F124" s="39"/>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
@@ -12178,7 +12178,7 @@
       <c r="E125" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="F125" s="23"/>
+      <c r="F125" s="39"/>
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
@@ -12212,7 +12212,7 @@
       <c r="E126" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="F126" s="23"/>
+      <c r="F126" s="39"/>
       <c r="G126" s="24"/>
       <c r="H126" s="24"/>
       <c r="I126" s="24"/>
@@ -12246,7 +12246,7 @@
       <c r="E127" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="F127" s="23"/>
+      <c r="F127" s="39"/>
       <c r="G127" s="24"/>
       <c r="H127" s="24"/>
       <c r="I127" s="24"/>
@@ -12280,7 +12280,7 @@
       <c r="E128" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="F128" s="23"/>
+      <c r="F128" s="39"/>
       <c r="G128" s="24"/>
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
@@ -12314,7 +12314,7 @@
       <c r="E129" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F129" s="23"/>
+      <c r="F129" s="39"/>
       <c r="G129" s="24"/>
       <c r="H129" s="24"/>
       <c r="I129" s="24"/>
@@ -12348,7 +12348,7 @@
       <c r="E130" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="F130" s="23"/>
+      <c r="F130" s="39"/>
       <c r="G130" s="24"/>
       <c r="H130" s="24"/>
       <c r="I130" s="24"/>
@@ -12382,7 +12382,7 @@
       <c r="E131" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F131" s="23"/>
+      <c r="F131" s="39"/>
       <c r="G131" s="24"/>
       <c r="H131" s="24"/>
       <c r="I131" s="24"/>
@@ -12416,7 +12416,7 @@
       <c r="E132" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="F132" s="23"/>
+      <c r="F132" s="39"/>
       <c r="G132" s="24"/>
       <c r="H132" s="24"/>
       <c r="I132" s="24"/>
@@ -12450,7 +12450,7 @@
       <c r="E133" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="F133" s="23"/>
+      <c r="F133" s="39"/>
       <c r="G133" s="24"/>
       <c r="H133" s="24"/>
       <c r="I133" s="24"/>
@@ -12484,7 +12484,7 @@
       <c r="E134" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="F134" s="23"/>
+      <c r="F134" s="39"/>
       <c r="G134" s="24"/>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
@@ -12518,7 +12518,7 @@
       <c r="E135" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="F135" s="23"/>
+      <c r="F135" s="39"/>
       <c r="G135" s="24"/>
       <c r="H135" s="24"/>
       <c r="I135" s="24"/>
@@ -12552,7 +12552,7 @@
       <c r="E136" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F136" s="23"/>
+      <c r="F136" s="39"/>
       <c r="G136" s="24"/>
       <c r="H136" s="24"/>
       <c r="I136" s="24"/>
@@ -12586,7 +12586,7 @@
       <c r="E137" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="F137" s="23"/>
+      <c r="F137" s="39"/>
       <c r="G137" s="24"/>
       <c r="H137" s="24"/>
       <c r="I137" s="24"/>
@@ -12620,7 +12620,7 @@
       <c r="E138" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F138" s="23"/>
+      <c r="F138" s="39"/>
       <c r="G138" s="24"/>
       <c r="H138" s="24"/>
       <c r="I138" s="24"/>
@@ -12654,7 +12654,7 @@
       <c r="E139" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="F139" s="23"/>
+      <c r="F139" s="39"/>
       <c r="G139" s="24"/>
       <c r="H139" s="24"/>
       <c r="I139" s="24"/>
@@ -12688,7 +12688,7 @@
       <c r="E140" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="F140" s="23"/>
+      <c r="F140" s="39"/>
       <c r="G140" s="24"/>
       <c r="H140" s="24"/>
       <c r="I140" s="24"/>
@@ -12722,7 +12722,7 @@
       <c r="E141" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F141" s="23"/>
+      <c r="F141" s="39"/>
       <c r="G141" s="24"/>
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
@@ -12756,7 +12756,7 @@
       <c r="E142" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="F142" s="23"/>
+      <c r="F142" s="39"/>
       <c r="G142" s="24"/>
       <c r="H142" s="24"/>
       <c r="I142" s="24"/>
@@ -12790,7 +12790,7 @@
       <c r="E143" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="F143" s="23"/>
+      <c r="F143" s="39"/>
       <c r="G143" s="24"/>
       <c r="H143" s="24"/>
       <c r="I143" s="24"/>
@@ -12824,7 +12824,7 @@
       <c r="E144" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="F144" s="23"/>
+      <c r="F144" s="39"/>
       <c r="G144" s="24"/>
       <c r="H144" s="24"/>
       <c r="I144" s="24"/>
@@ -12858,7 +12858,7 @@
       <c r="E145" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="F145" s="23"/>
+      <c r="F145" s="39"/>
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
@@ -12892,7 +12892,7 @@
       <c r="E146" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="F146" s="23"/>
+      <c r="F146" s="39"/>
       <c r="G146" s="24"/>
       <c r="H146" s="24"/>
       <c r="I146" s="24"/>
@@ -12926,7 +12926,7 @@
       <c r="E147" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="F147" s="23"/>
+      <c r="F147" s="39"/>
       <c r="G147" s="24"/>
       <c r="H147" s="24"/>
       <c r="I147" s="24"/>
@@ -12960,7 +12960,7 @@
       <c r="E148" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="F148" s="23"/>
+      <c r="F148" s="39"/>
       <c r="G148" s="24"/>
       <c r="H148" s="24"/>
       <c r="I148" s="24"/>
@@ -12994,7 +12994,7 @@
       <c r="E149" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="F149" s="23"/>
+      <c r="F149" s="39"/>
       <c r="G149" s="24"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -13028,7 +13028,7 @@
       <c r="E150" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="F150" s="23"/>
+      <c r="F150" s="39"/>
       <c r="G150" s="24"/>
       <c r="H150" s="24"/>
       <c r="I150" s="24"/>
@@ -13062,7 +13062,7 @@
       <c r="E151" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="F151" s="23"/>
+      <c r="F151" s="39"/>
       <c r="G151" s="24"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -13096,7 +13096,7 @@
       <c r="E152" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="F152" s="23"/>
+      <c r="F152" s="39"/>
       <c r="G152" s="24"/>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
@@ -13130,7 +13130,7 @@
       <c r="E153" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="F153" s="23"/>
+      <c r="F153" s="39"/>
       <c r="G153" s="24"/>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
@@ -13165,16 +13165,16 @@
         <v>835</v>
       </c>
       <c r="F154" s="39">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>869</v>
+        <v>900</v>
       </c>
       <c r="H154" s="38" t="s">
-        <v>870</v>
-      </c>
-      <c r="I154" s="38" t="s">
-        <v>871</v>
+        <v>901</v>
+      </c>
+      <c r="I154" s="24" t="s">
+        <v>902</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>137</v>
@@ -13192,7 +13192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20">
         <v>148</v>
       </c>
@@ -13208,7 +13208,7 @@
       <c r="E155" s="22" t="s">
         <v>834</v>
       </c>
-      <c r="F155" s="23"/>
+      <c r="F155" s="39"/>
       <c r="G155" s="24"/>
       <c r="H155" s="24"/>
       <c r="I155" s="24"/>
@@ -13230,7 +13230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20">
         <v>149</v>
       </c>
@@ -13246,7 +13246,7 @@
       <c r="E156" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="F156" s="23"/>
+      <c r="F156" s="39"/>
       <c r="G156" s="24"/>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
@@ -13268,7 +13268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20">
         <v>150</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="E157" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="F157" s="23"/>
+      <c r="F157" s="39"/>
       <c r="G157" s="24"/>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
@@ -13306,7 +13306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="20">
         <v>151</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="E158" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="F158" s="23"/>
+      <c r="F158" s="39"/>
       <c r="G158" s="24"/>
       <c r="H158" s="24"/>
       <c r="I158" s="24"/>
@@ -13361,16 +13361,16 @@
         <v>836</v>
       </c>
       <c r="F159" s="39">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>874</v>
+        <v>905</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>137</v>
@@ -13382,14 +13382,14 @@
       <c r="M159" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="N159" s="37" t="s">
-        <v>875</v>
+      <c r="N159" s="25" t="s">
+        <v>906</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>137</v>
       </c>
       <c r="P159" s="25" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -13398,7 +13398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="20">
         <v>153</v>
       </c>
@@ -13414,7 +13414,7 @@
       <c r="E160" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="F160" s="23"/>
+      <c r="F160" s="39"/>
       <c r="G160" s="24"/>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
@@ -13436,7 +13436,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="20">
         <v>154</v>
       </c>
@@ -13452,7 +13452,7 @@
       <c r="E161" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="F161" s="23"/>
+      <c r="F161" s="39"/>
       <c r="G161" s="24"/>
       <c r="H161" s="24"/>
       <c r="I161" s="24"/>
@@ -13460,7 +13460,7 @@
         <v>824</v>
       </c>
       <c r="K161" s="25" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
@@ -13474,7 +13474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20">
         <v>155</v>
       </c>
@@ -13490,7 +13490,7 @@
       <c r="E162" s="22" t="s">
         <v>841</v>
       </c>
-      <c r="F162" s="23"/>
+      <c r="F162" s="39"/>
       <c r="G162" s="24"/>
       <c r="H162" s="24"/>
       <c r="I162" s="24"/>
@@ -13512,7 +13512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="20">
         <v>156</v>
       </c>
@@ -13528,7 +13528,7 @@
       <c r="E163" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="F163" s="23"/>
+      <c r="F163" s="39"/>
       <c r="G163" s="24"/>
       <c r="H163" s="24"/>
       <c r="I163" s="24"/>
@@ -13550,7 +13550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="20">
         <v>157</v>
       </c>
@@ -13566,7 +13566,7 @@
       <c r="E164" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="F164" s="23"/>
+      <c r="F164" s="39"/>
       <c r="G164" s="24"/>
       <c r="H164" s="24"/>
       <c r="I164" s="24"/>
@@ -13588,7 +13588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="20">
         <v>158</v>
       </c>
@@ -13604,7 +13604,7 @@
       <c r="E165" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="F165" s="23"/>
+      <c r="F165" s="39"/>
       <c r="G165" s="24"/>
       <c r="H165" s="24"/>
       <c r="I165" s="24"/>
@@ -13612,7 +13612,7 @@
         <v>824</v>
       </c>
       <c r="K165" s="41" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -13626,7 +13626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20">
         <v>159</v>
       </c>
@@ -13642,7 +13642,7 @@
       <c r="E166" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="F166" s="23"/>
+      <c r="F166" s="39"/>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
       <c r="I166" s="24"/>
@@ -13650,7 +13650,7 @@
         <v>824</v>
       </c>
       <c r="K166" s="25" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -13681,16 +13681,16 @@
         <v>351</v>
       </c>
       <c r="F167" s="39">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>137</v>
@@ -13702,14 +13702,14 @@
       <c r="M167" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="N167" s="37" t="s">
-        <v>880</v>
+      <c r="N167" s="25" t="s">
+        <v>910</v>
       </c>
       <c r="O167" s="37" t="s">
         <v>137</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -13718,7 +13718,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20">
         <v>161</v>
       </c>
@@ -13734,7 +13734,7 @@
       <c r="E168" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="F168" s="23"/>
+      <c r="F168" s="39"/>
       <c r="G168" s="24"/>
       <c r="H168" s="24"/>
       <c r="I168" s="24"/>
@@ -13742,7 +13742,7 @@
         <v>824</v>
       </c>
       <c r="K168" s="37" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
@@ -13756,7 +13756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20">
         <v>162</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="E169" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="F169" s="23"/>
+      <c r="F169" s="39"/>
       <c r="G169" s="24"/>
       <c r="H169" s="24"/>
       <c r="I169" s="24"/>
@@ -13811,16 +13811,16 @@
         <v>853</v>
       </c>
       <c r="F170" s="39">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="G170" s="24" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="H170" s="24" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="J170" s="25" t="s">
         <v>137</v>
@@ -13832,14 +13832,14 @@
       <c r="M170" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="N170" s="37" t="s">
-        <v>885</v>
+      <c r="N170" s="25" t="s">
+        <v>914</v>
       </c>
       <c r="O170" s="37" t="s">
         <v>137</v>
       </c>
       <c r="P170" s="25" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="Q170" s="25"/>
       <c r="R170" s="26"/>
@@ -13848,7 +13848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="20">
         <v>164</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="E171" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="F171" s="23"/>
+      <c r="F171" s="39"/>
       <c r="G171" s="24"/>
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
@@ -13886,7 +13886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="20">
         <v>165</v>
       </c>
@@ -13902,7 +13902,7 @@
       <c r="E172" s="22" t="s">
         <v>855</v>
       </c>
-      <c r="F172" s="23"/>
+      <c r="F172" s="39"/>
       <c r="G172" s="24"/>
       <c r="H172" s="24"/>
       <c r="I172" s="24"/>
@@ -13924,7 +13924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20">
         <v>166</v>
       </c>
@@ -13940,7 +13940,7 @@
       <c r="E173" s="22" t="s">
         <v>856</v>
       </c>
-      <c r="F173" s="23"/>
+      <c r="F173" s="39"/>
       <c r="G173" s="24"/>
       <c r="H173" s="24"/>
       <c r="I173" s="24"/>
@@ -13962,7 +13962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="20">
         <v>167</v>
       </c>
@@ -13978,7 +13978,7 @@
       <c r="E174" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="F174" s="23"/>
+      <c r="F174" s="39"/>
       <c r="G174" s="24"/>
       <c r="H174" s="24"/>
       <c r="I174" s="24"/>
@@ -14000,7 +14000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20">
         <v>168</v>
       </c>
@@ -14016,7 +14016,7 @@
       <c r="E175" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="F175" s="23"/>
+      <c r="F175" s="39"/>
       <c r="G175" s="24"/>
       <c r="H175" s="24"/>
       <c r="I175" s="24"/>
@@ -14038,7 +14038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20">
         <v>169</v>
       </c>
@@ -14054,7 +14054,7 @@
       <c r="E176" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="F176" s="23"/>
+      <c r="F176" s="39"/>
       <c r="G176" s="24"/>
       <c r="H176" s="24"/>
       <c r="I176" s="24"/>
@@ -14092,7 +14092,7 @@
       <c r="E177" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="F177" s="23"/>
+      <c r="F177" s="39"/>
       <c r="G177" s="24"/>
       <c r="H177" s="24"/>
       <c r="I177" s="24"/>
@@ -14126,7 +14126,7 @@
       <c r="E178" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="F178" s="23"/>
+      <c r="F178" s="39"/>
       <c r="G178" s="24"/>
       <c r="H178" s="24"/>
       <c r="I178" s="24"/>
@@ -14160,7 +14160,7 @@
       <c r="E179" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="F179" s="23"/>
+      <c r="F179" s="39"/>
       <c r="G179" s="24"/>
       <c r="H179" s="24"/>
       <c r="I179" s="24"/>
@@ -14194,7 +14194,7 @@
       <c r="E180" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="F180" s="23"/>
+      <c r="F180" s="39"/>
       <c r="G180" s="24"/>
       <c r="H180" s="24"/>
       <c r="I180" s="24"/>
@@ -14228,7 +14228,7 @@
       <c r="E181" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="F181" s="23"/>
+      <c r="F181" s="39"/>
       <c r="G181" s="24"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -14262,7 +14262,7 @@
       <c r="E182" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F182" s="23"/>
+      <c r="F182" s="39"/>
       <c r="G182" s="24"/>
       <c r="H182" s="24"/>
       <c r="I182" s="24"/>
@@ -14296,7 +14296,7 @@
       <c r="E183" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="F183" s="23"/>
+      <c r="F183" s="39"/>
       <c r="G183" s="24"/>
       <c r="H183" s="24"/>
       <c r="I183" s="24"/>
@@ -14330,7 +14330,7 @@
       <c r="E184" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="F184" s="23"/>
+      <c r="F184" s="39"/>
       <c r="G184" s="24"/>
       <c r="H184" s="24"/>
       <c r="I184" s="24"/>
@@ -14364,7 +14364,7 @@
       <c r="E185" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="F185" s="23"/>
+      <c r="F185" s="39"/>
       <c r="G185" s="24"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -14398,7 +14398,7 @@
       <c r="E186" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="F186" s="23"/>
+      <c r="F186" s="39"/>
       <c r="G186" s="24"/>
       <c r="H186" s="24"/>
       <c r="I186" s="24"/>
@@ -14432,7 +14432,7 @@
       <c r="E187" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="F187" s="23"/>
+      <c r="F187" s="39"/>
       <c r="G187" s="24"/>
       <c r="H187" s="24"/>
       <c r="I187" s="24"/>
@@ -14466,7 +14466,7 @@
       <c r="E188" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="F188" s="23"/>
+      <c r="F188" s="39"/>
       <c r="G188" s="24"/>
       <c r="H188" s="24"/>
       <c r="I188" s="24"/>
@@ -14500,7 +14500,7 @@
       <c r="E189" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="F189" s="23"/>
+      <c r="F189" s="39"/>
       <c r="G189" s="24"/>
       <c r="H189" s="24"/>
       <c r="I189" s="24"/>
@@ -14534,7 +14534,7 @@
       <c r="E190" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="F190" s="23"/>
+      <c r="F190" s="39"/>
       <c r="G190" s="24"/>
       <c r="H190" s="24"/>
       <c r="I190" s="24"/>
@@ -14568,7 +14568,7 @@
       <c r="E191" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="F191" s="23"/>
+      <c r="F191" s="39"/>
       <c r="G191" s="24"/>
       <c r="H191" s="24"/>
       <c r="I191" s="24"/>
@@ -14602,7 +14602,7 @@
       <c r="E192" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="F192" s="23"/>
+      <c r="F192" s="39"/>
       <c r="G192" s="24"/>
       <c r="H192" s="24"/>
       <c r="I192" s="24"/>
@@ -14636,7 +14636,7 @@
       <c r="E193" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="F193" s="23"/>
+      <c r="F193" s="39"/>
       <c r="G193" s="24"/>
       <c r="H193" s="24"/>
       <c r="I193" s="24"/>
@@ -14670,7 +14670,7 @@
       <c r="E194" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F194" s="23"/>
+      <c r="F194" s="39"/>
       <c r="G194" s="24"/>
       <c r="H194" s="24"/>
       <c r="I194" s="24"/>
@@ -14704,7 +14704,7 @@
       <c r="E195" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="F195" s="23"/>
+      <c r="F195" s="39"/>
       <c r="G195" s="24"/>
       <c r="H195" s="24"/>
       <c r="I195" s="24"/>
@@ -14738,7 +14738,7 @@
       <c r="E196" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F196" s="23"/>
+      <c r="F196" s="39"/>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
       <c r="I196" s="24"/>
@@ -14772,7 +14772,7 @@
       <c r="E197" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="F197" s="23"/>
+      <c r="F197" s="39"/>
       <c r="G197" s="24"/>
       <c r="H197" s="24"/>
       <c r="I197" s="24"/>
@@ -14790,7 +14790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="20">
         <v>191</v>
       </c>
@@ -14806,7 +14806,7 @@
       <c r="E198" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="F198" s="23"/>
+      <c r="F198" s="39"/>
       <c r="G198" s="24"/>
       <c r="H198" s="24"/>
       <c r="I198" s="24"/>
@@ -14814,7 +14814,7 @@
         <v>824</v>
       </c>
       <c r="K198" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -14844,7 +14844,7 @@
       <c r="E199" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="F199" s="23"/>
+      <c r="F199" s="39"/>
       <c r="G199" s="24"/>
       <c r="H199" s="24"/>
       <c r="I199" s="24"/>
@@ -14878,7 +14878,7 @@
       <c r="E200" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="F200" s="23"/>
+      <c r="F200" s="39"/>
       <c r="G200" s="24"/>
       <c r="H200" s="24"/>
       <c r="I200" s="24"/>
@@ -14912,7 +14912,7 @@
       <c r="E201" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="F201" s="23"/>
+      <c r="F201" s="39"/>
       <c r="G201" s="24"/>
       <c r="H201" s="24"/>
       <c r="I201" s="24"/>
@@ -14946,7 +14946,7 @@
       <c r="E202" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="F202" s="23"/>
+      <c r="F202" s="39"/>
       <c r="G202" s="24"/>
       <c r="H202" s="24"/>
       <c r="I202" s="24"/>
@@ -14980,7 +14980,7 @@
       <c r="E203" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="F203" s="23"/>
+      <c r="F203" s="39"/>
       <c r="G203" s="24"/>
       <c r="H203" s="24"/>
       <c r="I203" s="24"/>
@@ -15014,7 +15014,7 @@
       <c r="E204" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="F204" s="23"/>
+      <c r="F204" s="39"/>
       <c r="G204" s="24"/>
       <c r="H204" s="24"/>
       <c r="I204" s="24"/>
@@ -15048,7 +15048,7 @@
       <c r="E205" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="F205" s="23"/>
+      <c r="F205" s="39"/>
       <c r="G205" s="24"/>
       <c r="H205" s="24"/>
       <c r="I205" s="24"/>
@@ -15082,7 +15082,7 @@
       <c r="E206" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="F206" s="23"/>
+      <c r="F206" s="39"/>
       <c r="G206" s="24"/>
       <c r="H206" s="24"/>
       <c r="I206" s="24"/>
@@ -15116,7 +15116,7 @@
       <c r="E207" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="F207" s="23"/>
+      <c r="F207" s="39"/>
       <c r="G207" s="24"/>
       <c r="H207" s="24"/>
       <c r="I207" s="24"/>
@@ -15150,7 +15150,7 @@
       <c r="E208" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="F208" s="23"/>
+      <c r="F208" s="39"/>
       <c r="G208" s="24"/>
       <c r="H208" s="24"/>
       <c r="I208" s="24"/>
@@ -15184,7 +15184,7 @@
       <c r="E209" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="F209" s="23"/>
+      <c r="F209" s="39"/>
       <c r="G209" s="24"/>
       <c r="H209" s="24"/>
       <c r="I209" s="24"/>
@@ -15218,7 +15218,7 @@
       <c r="E210" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="F210" s="23"/>
+      <c r="F210" s="39"/>
       <c r="G210" s="24"/>
       <c r="H210" s="24"/>
       <c r="I210" s="24"/>
@@ -15252,7 +15252,7 @@
       <c r="E211" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F211" s="23"/>
+      <c r="F211" s="39"/>
       <c r="G211" s="24"/>
       <c r="H211" s="24"/>
       <c r="I211" s="24"/>
@@ -15286,7 +15286,7 @@
       <c r="E212" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F212" s="23"/>
+      <c r="F212" s="39"/>
       <c r="G212" s="24"/>
       <c r="H212" s="24"/>
       <c r="I212" s="24"/>
@@ -15320,7 +15320,7 @@
       <c r="E213" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F213" s="23"/>
+      <c r="F213" s="39"/>
       <c r="G213" s="24"/>
       <c r="H213" s="24"/>
       <c r="I213" s="24"/>
@@ -15354,7 +15354,7 @@
       <c r="E214" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="F214" s="23"/>
+      <c r="F214" s="39"/>
       <c r="G214" s="24"/>
       <c r="H214" s="24"/>
       <c r="I214" s="24"/>
@@ -15388,7 +15388,7 @@
       <c r="E215" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="F215" s="23"/>
+      <c r="F215" s="39"/>
       <c r="G215" s="24"/>
       <c r="H215" s="24"/>
       <c r="I215" s="24"/>
@@ -15422,7 +15422,7 @@
       <c r="E216" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="F216" s="23"/>
+      <c r="F216" s="39"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
       <c r="I216" s="24"/>
@@ -15456,7 +15456,7 @@
       <c r="E217" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="F217" s="23"/>
+      <c r="F217" s="39"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
       <c r="I217" s="24"/>
@@ -15490,7 +15490,7 @@
       <c r="E218" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="F218" s="23"/>
+      <c r="F218" s="39"/>
       <c r="G218" s="24"/>
       <c r="H218" s="24"/>
       <c r="I218" s="24"/>
@@ -15524,7 +15524,7 @@
       <c r="E219" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="F219" s="23"/>
+      <c r="F219" s="39"/>
       <c r="G219" s="24"/>
       <c r="H219" s="24"/>
       <c r="I219" s="24"/>
@@ -15558,7 +15558,7 @@
       <c r="E220" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="F220" s="23"/>
+      <c r="F220" s="39"/>
       <c r="G220" s="24"/>
       <c r="H220" s="24"/>
       <c r="I220" s="24"/>
@@ -15592,7 +15592,7 @@
       <c r="E221" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="F221" s="23"/>
+      <c r="F221" s="39"/>
       <c r="G221" s="24"/>
       <c r="H221" s="24"/>
       <c r="I221" s="24"/>
@@ -15626,7 +15626,7 @@
       <c r="E222" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="F222" s="23"/>
+      <c r="F222" s="39"/>
       <c r="G222" s="24"/>
       <c r="H222" s="24"/>
       <c r="I222" s="24"/>
@@ -15660,7 +15660,7 @@
       <c r="E223" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="F223" s="23"/>
+      <c r="F223" s="39"/>
       <c r="G223" s="24"/>
       <c r="H223" s="24"/>
       <c r="I223" s="24"/>
@@ -15694,7 +15694,7 @@
       <c r="E224" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="F224" s="23"/>
+      <c r="F224" s="39"/>
       <c r="G224" s="24"/>
       <c r="H224" s="24"/>
       <c r="I224" s="24"/>
@@ -15728,7 +15728,7 @@
       <c r="E225" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="F225" s="23"/>
+      <c r="F225" s="39"/>
       <c r="G225" s="24"/>
       <c r="H225" s="24"/>
       <c r="I225" s="24"/>
@@ -15762,7 +15762,7 @@
       <c r="E226" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="F226" s="23"/>
+      <c r="F226" s="39"/>
       <c r="G226" s="24"/>
       <c r="H226" s="24"/>
       <c r="I226" s="24"/>
@@ -15796,7 +15796,7 @@
       <c r="E227" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F227" s="23"/>
+      <c r="F227" s="39"/>
       <c r="G227" s="24"/>
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
@@ -15830,7 +15830,7 @@
       <c r="E228" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="F228" s="23"/>
+      <c r="F228" s="39"/>
       <c r="G228" s="24"/>
       <c r="H228" s="24"/>
       <c r="I228" s="24"/>
@@ -15864,7 +15864,7 @@
       <c r="E229" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="F229" s="23"/>
+      <c r="F229" s="39"/>
       <c r="G229" s="24"/>
       <c r="H229" s="24"/>
       <c r="I229" s="24"/>
@@ -15898,7 +15898,7 @@
       <c r="E230" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="F230" s="23"/>
+      <c r="F230" s="39"/>
       <c r="G230" s="24"/>
       <c r="H230" s="24"/>
       <c r="I230" s="24"/>
@@ -15932,7 +15932,7 @@
       <c r="E231" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="F231" s="23"/>
+      <c r="F231" s="39"/>
       <c r="G231" s="24"/>
       <c r="H231" s="24"/>
       <c r="I231" s="24"/>
@@ -15966,7 +15966,7 @@
       <c r="E232" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="F232" s="23"/>
+      <c r="F232" s="39"/>
       <c r="G232" s="24"/>
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
@@ -16000,7 +16000,7 @@
       <c r="E233" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="F233" s="23"/>
+      <c r="F233" s="39"/>
       <c r="G233" s="24"/>
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
@@ -16034,7 +16034,7 @@
       <c r="E234" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="F234" s="23"/>
+      <c r="F234" s="39"/>
       <c r="G234" s="24"/>
       <c r="H234" s="24"/>
       <c r="I234" s="24"/>
@@ -16068,7 +16068,7 @@
       <c r="E235" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="F235" s="23"/>
+      <c r="F235" s="39"/>
       <c r="G235" s="24"/>
       <c r="H235" s="24"/>
       <c r="I235" s="24"/>
@@ -16102,7 +16102,7 @@
       <c r="E236" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="F236" s="23"/>
+      <c r="F236" s="39"/>
       <c r="G236" s="24"/>
       <c r="H236" s="24"/>
       <c r="I236" s="24"/>
@@ -16136,7 +16136,7 @@
       <c r="E237" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="F237" s="23"/>
+      <c r="F237" s="39"/>
       <c r="G237" s="24"/>
       <c r="H237" s="24"/>
       <c r="I237" s="24"/>
@@ -16170,7 +16170,7 @@
       <c r="E238" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="F238" s="23"/>
+      <c r="F238" s="39"/>
       <c r="G238" s="24"/>
       <c r="H238" s="24"/>
       <c r="I238" s="24"/>
@@ -16204,7 +16204,7 @@
       <c r="E239" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="F239" s="23"/>
+      <c r="F239" s="39"/>
       <c r="G239" s="24"/>
       <c r="H239" s="24"/>
       <c r="I239" s="24"/>
@@ -16238,7 +16238,7 @@
       <c r="E240" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="F240" s="23"/>
+      <c r="F240" s="39"/>
       <c r="G240" s="24"/>
       <c r="H240" s="24"/>
       <c r="I240" s="24"/>
@@ -16272,7 +16272,7 @@
       <c r="E241" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="F241" s="23"/>
+      <c r="F241" s="39"/>
       <c r="G241" s="24"/>
       <c r="H241" s="24"/>
       <c r="I241" s="24"/>
@@ -16306,7 +16306,7 @@
       <c r="E242" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="F242" s="23"/>
+      <c r="F242" s="39"/>
       <c r="G242" s="24"/>
       <c r="H242" s="24"/>
       <c r="I242" s="24"/>
@@ -16340,7 +16340,7 @@
       <c r="E243" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F243" s="23"/>
+      <c r="F243" s="39"/>
       <c r="G243" s="24"/>
       <c r="H243" s="24"/>
       <c r="I243" s="24"/>
@@ -16374,7 +16374,7 @@
       <c r="E244" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="F244" s="23"/>
+      <c r="F244" s="39"/>
       <c r="G244" s="24"/>
       <c r="H244" s="24"/>
       <c r="I244" s="24"/>
@@ -16408,7 +16408,7 @@
       <c r="E245" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="F245" s="23"/>
+      <c r="F245" s="39"/>
       <c r="G245" s="24"/>
       <c r="H245" s="24"/>
       <c r="I245" s="24"/>
@@ -16442,7 +16442,7 @@
       <c r="E246" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="F246" s="23"/>
+      <c r="F246" s="39"/>
       <c r="G246" s="24"/>
       <c r="H246" s="24"/>
       <c r="I246" s="24"/>
@@ -16476,7 +16476,7 @@
       <c r="E247" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="F247" s="23"/>
+      <c r="F247" s="39"/>
       <c r="G247" s="24"/>
       <c r="H247" s="24"/>
       <c r="I247" s="24"/>
@@ -16510,7 +16510,7 @@
       <c r="E248" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="F248" s="23"/>
+      <c r="F248" s="39"/>
       <c r="G248" s="24"/>
       <c r="H248" s="24"/>
       <c r="I248" s="24"/>
@@ -16544,7 +16544,7 @@
       <c r="E249" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="F249" s="23"/>
+      <c r="F249" s="39"/>
       <c r="G249" s="24"/>
       <c r="H249" s="24"/>
       <c r="I249" s="24"/>
@@ -16578,7 +16578,7 @@
       <c r="E250" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="F250" s="23"/>
+      <c r="F250" s="39"/>
       <c r="G250" s="24"/>
       <c r="H250" s="24"/>
       <c r="I250" s="24"/>
@@ -16612,7 +16612,7 @@
       <c r="E251" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="F251" s="23"/>
+      <c r="F251" s="39"/>
       <c r="G251" s="24"/>
       <c r="H251" s="24"/>
       <c r="I251" s="24"/>
@@ -16646,7 +16646,7 @@
       <c r="E252" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="F252" s="23"/>
+      <c r="F252" s="39"/>
       <c r="G252" s="24"/>
       <c r="H252" s="24"/>
       <c r="I252" s="24"/>
@@ -16680,7 +16680,7 @@
       <c r="E253" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="F253" s="23"/>
+      <c r="F253" s="39"/>
       <c r="G253" s="24"/>
       <c r="H253" s="24"/>
       <c r="I253" s="24"/>
@@ -16714,7 +16714,7 @@
       <c r="E254" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="F254" s="23"/>
+      <c r="F254" s="39"/>
       <c r="G254" s="24"/>
       <c r="H254" s="24"/>
       <c r="I254" s="24"/>
@@ -16748,7 +16748,7 @@
       <c r="E255" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="F255" s="23"/>
+      <c r="F255" s="39"/>
       <c r="G255" s="24"/>
       <c r="H255" s="24"/>
       <c r="I255" s="24"/>
@@ -16782,7 +16782,7 @@
       <c r="E256" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="F256" s="23"/>
+      <c r="F256" s="39"/>
       <c r="G256" s="24"/>
       <c r="H256" s="24"/>
       <c r="I256" s="24"/>
@@ -16816,7 +16816,7 @@
       <c r="E257" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="F257" s="23"/>
+      <c r="F257" s="39"/>
       <c r="G257" s="24"/>
       <c r="H257" s="24"/>
       <c r="I257" s="24"/>
@@ -16850,7 +16850,7 @@
       <c r="E258" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="F258" s="23"/>
+      <c r="F258" s="39"/>
       <c r="G258" s="24"/>
       <c r="H258" s="24"/>
       <c r="I258" s="24"/>
@@ -16884,7 +16884,7 @@
       <c r="E259" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F259" s="23"/>
+      <c r="F259" s="39"/>
       <c r="G259" s="24"/>
       <c r="H259" s="24"/>
       <c r="I259" s="24"/>
@@ -16918,7 +16918,7 @@
       <c r="E260" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="F260" s="23"/>
+      <c r="F260" s="39"/>
       <c r="G260" s="24"/>
       <c r="H260" s="24"/>
       <c r="I260" s="24"/>
@@ -16952,7 +16952,7 @@
       <c r="E261" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="F261" s="23"/>
+      <c r="F261" s="39"/>
       <c r="G261" s="24"/>
       <c r="H261" s="24"/>
       <c r="I261" s="24"/>
@@ -16986,7 +16986,7 @@
       <c r="E262" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="F262" s="23"/>
+      <c r="F262" s="39"/>
       <c r="G262" s="24"/>
       <c r="H262" s="24"/>
       <c r="I262" s="24"/>
@@ -17020,7 +17020,7 @@
       <c r="E263" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="F263" s="23"/>
+      <c r="F263" s="39"/>
       <c r="G263" s="24"/>
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
@@ -17054,7 +17054,7 @@
       <c r="E264" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="F264" s="23"/>
+      <c r="F264" s="39"/>
       <c r="G264" s="24"/>
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
@@ -17088,7 +17088,7 @@
       <c r="E265" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="F265" s="23"/>
+      <c r="F265" s="39"/>
       <c r="G265" s="24"/>
       <c r="H265" s="24"/>
       <c r="I265" s="24"/>
@@ -17122,7 +17122,7 @@
       <c r="E266" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="F266" s="23"/>
+      <c r="F266" s="39"/>
       <c r="G266" s="24"/>
       <c r="H266" s="24"/>
       <c r="I266" s="24"/>
@@ -17156,7 +17156,7 @@
       <c r="E267" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="F267" s="23"/>
+      <c r="F267" s="39"/>
       <c r="G267" s="24"/>
       <c r="H267" s="24"/>
       <c r="I267" s="24"/>
@@ -17190,7 +17190,7 @@
       <c r="E268" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F268" s="23"/>
+      <c r="F268" s="39"/>
       <c r="G268" s="24"/>
       <c r="H268" s="24"/>
       <c r="I268" s="24"/>
@@ -17224,7 +17224,7 @@
       <c r="E269" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="F269" s="23"/>
+      <c r="F269" s="39"/>
       <c r="G269" s="24"/>
       <c r="H269" s="24"/>
       <c r="I269" s="24"/>
@@ -17258,7 +17258,7 @@
       <c r="E270" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="F270" s="23"/>
+      <c r="F270" s="39"/>
       <c r="G270" s="24"/>
       <c r="H270" s="24"/>
       <c r="I270" s="24"/>
@@ -17292,7 +17292,7 @@
       <c r="E271" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F271" s="23"/>
+      <c r="F271" s="39"/>
       <c r="G271" s="24"/>
       <c r="H271" s="24"/>
       <c r="I271" s="24"/>
@@ -17326,7 +17326,7 @@
       <c r="E272" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="F272" s="23"/>
+      <c r="F272" s="39"/>
       <c r="G272" s="24"/>
       <c r="H272" s="24"/>
       <c r="I272" s="24"/>
@@ -17360,7 +17360,7 @@
       <c r="E273" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="F273" s="23"/>
+      <c r="F273" s="39"/>
       <c r="G273" s="24"/>
       <c r="H273" s="24"/>
       <c r="I273" s="24"/>
@@ -17394,7 +17394,7 @@
       <c r="E274" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="F274" s="23"/>
+      <c r="F274" s="39"/>
       <c r="G274" s="24"/>
       <c r="H274" s="24"/>
       <c r="I274" s="24"/>
@@ -17428,7 +17428,7 @@
       <c r="E275" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F275" s="23"/>
+      <c r="F275" s="39"/>
       <c r="G275" s="24"/>
       <c r="H275" s="24"/>
       <c r="I275" s="24"/>
@@ -17462,7 +17462,7 @@
       <c r="E276" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="F276" s="23"/>
+      <c r="F276" s="39"/>
       <c r="G276" s="24"/>
       <c r="H276" s="24"/>
       <c r="I276" s="24"/>
@@ -17496,7 +17496,7 @@
       <c r="E277" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="F277" s="23"/>
+      <c r="F277" s="39"/>
       <c r="G277" s="24"/>
       <c r="H277" s="24"/>
       <c r="I277" s="24"/>
@@ -17530,7 +17530,7 @@
       <c r="E278" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="F278" s="23"/>
+      <c r="F278" s="39"/>
       <c r="G278" s="24"/>
       <c r="H278" s="24"/>
       <c r="I278" s="24"/>
@@ -17564,7 +17564,7 @@
       <c r="E279" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="F279" s="23"/>
+      <c r="F279" s="39"/>
       <c r="G279" s="24"/>
       <c r="H279" s="24"/>
       <c r="I279" s="24"/>
@@ -17598,7 +17598,7 @@
       <c r="E280" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="F280" s="23"/>
+      <c r="F280" s="39"/>
       <c r="G280" s="24"/>
       <c r="H280" s="24"/>
       <c r="I280" s="24"/>
@@ -17632,7 +17632,7 @@
       <c r="E281" s="22" t="s">
         <v>571</v>
       </c>
-      <c r="F281" s="23"/>
+      <c r="F281" s="39"/>
       <c r="G281" s="24"/>
       <c r="H281" s="24"/>
       <c r="I281" s="24"/>
@@ -17666,7 +17666,7 @@
       <c r="E282" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="F282" s="23"/>
+      <c r="F282" s="39"/>
       <c r="G282" s="24"/>
       <c r="H282" s="24"/>
       <c r="I282" s="24"/>
@@ -17700,7 +17700,7 @@
       <c r="E283" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="F283" s="23"/>
+      <c r="F283" s="39"/>
       <c r="G283" s="24"/>
       <c r="H283" s="24"/>
       <c r="I283" s="24"/>
@@ -17734,7 +17734,7 @@
       <c r="E284" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="F284" s="23"/>
+      <c r="F284" s="39"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
       <c r="I284" s="24"/>
@@ -17768,7 +17768,7 @@
       <c r="E285" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="F285" s="23"/>
+      <c r="F285" s="39"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
       <c r="I285" s="24"/>
@@ -17802,7 +17802,7 @@
       <c r="E286" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="F286" s="23"/>
+      <c r="F286" s="39"/>
       <c r="G286" s="24"/>
       <c r="H286" s="24"/>
       <c r="I286" s="24"/>
@@ -17836,7 +17836,7 @@
       <c r="E287" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="F287" s="23"/>
+      <c r="F287" s="39"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
       <c r="I287" s="24"/>
@@ -17870,7 +17870,7 @@
       <c r="E288" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="F288" s="23"/>
+      <c r="F288" s="39"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
       <c r="I288" s="24"/>
@@ -17904,7 +17904,7 @@
       <c r="E289" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="F289" s="23"/>
+      <c r="F289" s="39"/>
       <c r="G289" s="24"/>
       <c r="H289" s="24"/>
       <c r="I289" s="24"/>
@@ -17938,7 +17938,7 @@
       <c r="E290" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="39"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
       <c r="I290" s="24"/>
@@ -17972,7 +17972,7 @@
       <c r="E291" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F291" s="23"/>
+      <c r="F291" s="39"/>
       <c r="G291" s="24"/>
       <c r="H291" s="24"/>
       <c r="I291" s="24"/>
@@ -18006,7 +18006,7 @@
       <c r="E292" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="F292" s="23"/>
+      <c r="F292" s="39"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
       <c r="I292" s="24"/>
@@ -18040,7 +18040,7 @@
       <c r="E293" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="F293" s="23"/>
+      <c r="F293" s="39"/>
       <c r="G293" s="24"/>
       <c r="H293" s="24"/>
       <c r="I293" s="24"/>
@@ -18074,7 +18074,7 @@
       <c r="E294" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="39"/>
       <c r="G294" s="24"/>
       <c r="H294" s="24"/>
       <c r="I294" s="24"/>
@@ -18108,7 +18108,7 @@
       <c r="E295" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="F295" s="23"/>
+      <c r="F295" s="39"/>
       <c r="G295" s="24"/>
       <c r="H295" s="24"/>
       <c r="I295" s="24"/>
@@ -18142,7 +18142,7 @@
       <c r="E296" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="39"/>
       <c r="G296" s="24"/>
       <c r="H296" s="24"/>
       <c r="I296" s="24"/>
@@ -18176,7 +18176,7 @@
       <c r="E297" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="F297" s="23"/>
+      <c r="F297" s="39"/>
       <c r="G297" s="24"/>
       <c r="H297" s="24"/>
       <c r="I297" s="24"/>
@@ -18210,7 +18210,7 @@
       <c r="E298" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="F298" s="23"/>
+      <c r="F298" s="39"/>
       <c r="G298" s="24"/>
       <c r="H298" s="24"/>
       <c r="I298" s="24"/>
@@ -18244,7 +18244,7 @@
       <c r="E299" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="F299" s="23"/>
+      <c r="F299" s="39"/>
       <c r="G299" s="24"/>
       <c r="H299" s="24"/>
       <c r="I299" s="24"/>
@@ -18278,7 +18278,7 @@
       <c r="E300" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="F300" s="23"/>
+      <c r="F300" s="39"/>
       <c r="G300" s="24"/>
       <c r="H300" s="24"/>
       <c r="I300" s="24"/>
@@ -18312,7 +18312,7 @@
       <c r="E301" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="F301" s="23"/>
+      <c r="F301" s="39"/>
       <c r="G301" s="24"/>
       <c r="H301" s="24"/>
       <c r="I301" s="24"/>
@@ -18346,7 +18346,7 @@
       <c r="E302" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="F302" s="23"/>
+      <c r="F302" s="39"/>
       <c r="G302" s="24"/>
       <c r="H302" s="24"/>
       <c r="I302" s="24"/>
@@ -18380,7 +18380,7 @@
       <c r="E303" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="F303" s="23"/>
+      <c r="F303" s="39"/>
       <c r="G303" s="24"/>
       <c r="H303" s="24"/>
       <c r="I303" s="24"/>
@@ -18414,7 +18414,7 @@
       <c r="E304" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="F304" s="23"/>
+      <c r="F304" s="39"/>
       <c r="G304" s="24"/>
       <c r="H304" s="24"/>
       <c r="I304" s="24"/>
@@ -18448,7 +18448,7 @@
       <c r="E305" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="F305" s="23"/>
+      <c r="F305" s="39"/>
       <c r="G305" s="24"/>
       <c r="H305" s="24"/>
       <c r="I305" s="24"/>
@@ -18482,7 +18482,7 @@
       <c r="E306" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="F306" s="23"/>
+      <c r="F306" s="39"/>
       <c r="G306" s="24"/>
       <c r="H306" s="24"/>
       <c r="I306" s="24"/>
@@ -18516,7 +18516,7 @@
       <c r="E307" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F307" s="23"/>
+      <c r="F307" s="39"/>
       <c r="G307" s="24"/>
       <c r="H307" s="24"/>
       <c r="I307" s="24"/>
@@ -18550,7 +18550,7 @@
       <c r="E308" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="F308" s="23"/>
+      <c r="F308" s="39"/>
       <c r="G308" s="24"/>
       <c r="H308" s="24"/>
       <c r="I308" s="24"/>
@@ -18584,7 +18584,7 @@
       <c r="E309" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="F309" s="23"/>
+      <c r="F309" s="39"/>
       <c r="G309" s="24"/>
       <c r="H309" s="24"/>
       <c r="I309" s="24"/>
@@ -18618,7 +18618,7 @@
       <c r="E310" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="F310" s="23"/>
+      <c r="F310" s="39"/>
       <c r="G310" s="24"/>
       <c r="H310" s="24"/>
       <c r="I310" s="24"/>
@@ -18652,7 +18652,7 @@
       <c r="E311" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="F311" s="23"/>
+      <c r="F311" s="39"/>
       <c r="G311" s="24"/>
       <c r="H311" s="24"/>
       <c r="I311" s="24"/>
@@ -18686,7 +18686,7 @@
       <c r="E312" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="F312" s="23"/>
+      <c r="F312" s="39"/>
       <c r="G312" s="24"/>
       <c r="H312" s="24"/>
       <c r="I312" s="24"/>
@@ -18720,7 +18720,7 @@
       <c r="E313" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="F313" s="23"/>
+      <c r="F313" s="39"/>
       <c r="G313" s="24"/>
       <c r="H313" s="24"/>
       <c r="I313" s="24"/>
@@ -18754,7 +18754,7 @@
       <c r="E314" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="F314" s="23"/>
+      <c r="F314" s="39"/>
       <c r="G314" s="24"/>
       <c r="H314" s="24"/>
       <c r="I314" s="24"/>
@@ -18788,7 +18788,7 @@
       <c r="E315" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="F315" s="23"/>
+      <c r="F315" s="39"/>
       <c r="G315" s="24"/>
       <c r="H315" s="24"/>
       <c r="I315" s="24"/>
@@ -18822,7 +18822,7 @@
       <c r="E316" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="F316" s="23"/>
+      <c r="F316" s="39"/>
       <c r="G316" s="24"/>
       <c r="H316" s="24"/>
       <c r="I316" s="24"/>
@@ -18856,7 +18856,7 @@
       <c r="E317" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="F317" s="23"/>
+      <c r="F317" s="39"/>
       <c r="G317" s="24"/>
       <c r="H317" s="24"/>
       <c r="I317" s="24"/>
@@ -18890,7 +18890,7 @@
       <c r="E318" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="F318" s="23"/>
+      <c r="F318" s="39"/>
       <c r="G318" s="24"/>
       <c r="H318" s="24"/>
       <c r="I318" s="24"/>
@@ -18924,7 +18924,7 @@
       <c r="E319" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="F319" s="23"/>
+      <c r="F319" s="39"/>
       <c r="G319" s="24"/>
       <c r="H319" s="24"/>
       <c r="I319" s="24"/>
@@ -18958,7 +18958,7 @@
       <c r="E320" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="F320" s="23"/>
+      <c r="F320" s="39"/>
       <c r="G320" s="24"/>
       <c r="H320" s="24"/>
       <c r="I320" s="24"/>
@@ -18992,7 +18992,7 @@
       <c r="E321" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="F321" s="23"/>
+      <c r="F321" s="39"/>
       <c r="G321" s="24"/>
       <c r="H321" s="24"/>
       <c r="I321" s="24"/>
@@ -19026,7 +19026,7 @@
       <c r="E322" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="F322" s="23"/>
+      <c r="F322" s="39"/>
       <c r="G322" s="24"/>
       <c r="H322" s="24"/>
       <c r="I322" s="24"/>
@@ -19060,7 +19060,7 @@
       <c r="E323" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="F323" s="23"/>
+      <c r="F323" s="39"/>
       <c r="G323" s="24"/>
       <c r="H323" s="24"/>
       <c r="I323" s="24"/>
@@ -19094,7 +19094,7 @@
       <c r="E324" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="F324" s="23"/>
+      <c r="F324" s="39"/>
       <c r="G324" s="24"/>
       <c r="H324" s="24"/>
       <c r="I324" s="24"/>
@@ -19128,7 +19128,7 @@
       <c r="E325" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="F325" s="23"/>
+      <c r="F325" s="39"/>
       <c r="G325" s="24"/>
       <c r="H325" s="24"/>
       <c r="I325" s="24"/>
@@ -19162,7 +19162,7 @@
       <c r="E326" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="F326" s="23"/>
+      <c r="F326" s="39"/>
       <c r="G326" s="24"/>
       <c r="H326" s="24"/>
       <c r="I326" s="24"/>
@@ -19196,7 +19196,7 @@
       <c r="E327" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="F327" s="23"/>
+      <c r="F327" s="39"/>
       <c r="G327" s="24"/>
       <c r="H327" s="24"/>
       <c r="I327" s="24"/>
@@ -19230,7 +19230,7 @@
       <c r="E328" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="F328" s="23"/>
+      <c r="F328" s="39"/>
       <c r="G328" s="24"/>
       <c r="H328" s="24"/>
       <c r="I328" s="24"/>
@@ -19264,7 +19264,7 @@
       <c r="E329" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="F329" s="23"/>
+      <c r="F329" s="39"/>
       <c r="G329" s="24"/>
       <c r="H329" s="24"/>
       <c r="I329" s="24"/>
@@ -19298,7 +19298,7 @@
       <c r="E330" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="F330" s="23"/>
+      <c r="F330" s="39"/>
       <c r="G330" s="24"/>
       <c r="H330" s="24"/>
       <c r="I330" s="24"/>
@@ -19332,7 +19332,7 @@
       <c r="E331" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="F331" s="23"/>
+      <c r="F331" s="39"/>
       <c r="G331" s="24"/>
       <c r="H331" s="24"/>
       <c r="I331" s="24"/>
@@ -19366,7 +19366,7 @@
       <c r="E332" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="F332" s="23"/>
+      <c r="F332" s="39"/>
       <c r="G332" s="24"/>
       <c r="H332" s="24"/>
       <c r="I332" s="24"/>
@@ -19400,7 +19400,7 @@
       <c r="E333" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="F333" s="23"/>
+      <c r="F333" s="39"/>
       <c r="G333" s="24"/>
       <c r="H333" s="24"/>
       <c r="I333" s="24"/>
@@ -19434,7 +19434,7 @@
       <c r="E334" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="F334" s="23"/>
+      <c r="F334" s="39"/>
       <c r="G334" s="24"/>
       <c r="H334" s="24"/>
       <c r="I334" s="24"/>
@@ -19468,7 +19468,7 @@
       <c r="E335" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="F335" s="23"/>
+      <c r="F335" s="39"/>
       <c r="G335" s="24"/>
       <c r="H335" s="24"/>
       <c r="I335" s="24"/>
@@ -19502,7 +19502,7 @@
       <c r="E336" s="22" t="s">
         <v>678</v>
       </c>
-      <c r="F336" s="23"/>
+      <c r="F336" s="39"/>
       <c r="G336" s="24"/>
       <c r="H336" s="24"/>
       <c r="I336" s="24"/>
@@ -19536,7 +19536,7 @@
       <c r="E337" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="F337" s="23"/>
+      <c r="F337" s="39"/>
       <c r="G337" s="24"/>
       <c r="H337" s="24"/>
       <c r="I337" s="24"/>
@@ -19570,7 +19570,7 @@
       <c r="E338" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="F338" s="23"/>
+      <c r="F338" s="39"/>
       <c r="G338" s="24"/>
       <c r="H338" s="24"/>
       <c r="I338" s="24"/>
@@ -19604,7 +19604,7 @@
       <c r="E339" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="F339" s="23"/>
+      <c r="F339" s="39"/>
       <c r="G339" s="24"/>
       <c r="H339" s="24"/>
       <c r="I339" s="24"/>
@@ -19638,7 +19638,7 @@
       <c r="E340" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="F340" s="23"/>
+      <c r="F340" s="39"/>
       <c r="G340" s="24"/>
       <c r="H340" s="24"/>
       <c r="I340" s="24"/>
@@ -19672,7 +19672,7 @@
       <c r="E341" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="F341" s="23"/>
+      <c r="F341" s="39"/>
       <c r="G341" s="24"/>
       <c r="H341" s="24"/>
       <c r="I341" s="24"/>
@@ -19706,7 +19706,7 @@
       <c r="E342" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="F342" s="23"/>
+      <c r="F342" s="39"/>
       <c r="G342" s="24"/>
       <c r="H342" s="24"/>
       <c r="I342" s="24"/>
@@ -19740,7 +19740,7 @@
       <c r="E343" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="39"/>
       <c r="G343" s="24"/>
       <c r="H343" s="24"/>
       <c r="I343" s="24"/>
@@ -19774,7 +19774,7 @@
       <c r="E344" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="F344" s="23"/>
+      <c r="F344" s="39"/>
       <c r="G344" s="24"/>
       <c r="H344" s="24"/>
       <c r="I344" s="24"/>
@@ -19808,7 +19808,7 @@
       <c r="E345" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="F345" s="23"/>
+      <c r="F345" s="39"/>
       <c r="G345" s="24"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -19842,7 +19842,7 @@
       <c r="E346" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="F346" s="23"/>
+      <c r="F346" s="39"/>
       <c r="G346" s="24"/>
       <c r="H346" s="24"/>
       <c r="I346" s="24"/>
@@ -19876,7 +19876,7 @@
       <c r="E347" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="F347" s="23"/>
+      <c r="F347" s="39"/>
       <c r="G347" s="24"/>
       <c r="H347" s="24"/>
       <c r="I347" s="24"/>
@@ -19910,7 +19910,7 @@
       <c r="E348" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="F348" s="23"/>
+      <c r="F348" s="39"/>
       <c r="G348" s="24"/>
       <c r="H348" s="24"/>
       <c r="I348" s="24"/>
@@ -19944,7 +19944,7 @@
       <c r="E349" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="F349" s="23"/>
+      <c r="F349" s="39"/>
       <c r="G349" s="24"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -19978,7 +19978,7 @@
       <c r="E350" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="F350" s="23"/>
+      <c r="F350" s="39"/>
       <c r="G350" s="24"/>
       <c r="H350" s="24"/>
       <c r="I350" s="24"/>
@@ -20012,7 +20012,7 @@
       <c r="E351" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="F351" s="23"/>
+      <c r="F351" s="39"/>
       <c r="G351" s="24"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -20046,7 +20046,7 @@
       <c r="E352" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="F352" s="23"/>
+      <c r="F352" s="39"/>
       <c r="G352" s="24"/>
       <c r="H352" s="24"/>
       <c r="I352" s="24"/>
@@ -20080,7 +20080,7 @@
       <c r="E353" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="F353" s="23"/>
+      <c r="F353" s="39"/>
       <c r="G353" s="24"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -20114,7 +20114,7 @@
       <c r="E354" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="F354" s="23"/>
+      <c r="F354" s="39"/>
       <c r="G354" s="24"/>
       <c r="H354" s="24"/>
       <c r="I354" s="24"/>
@@ -20148,7 +20148,7 @@
       <c r="E355" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="F355" s="23"/>
+      <c r="F355" s="39"/>
       <c r="G355" s="24"/>
       <c r="H355" s="24"/>
       <c r="I355" s="24"/>
@@ -20182,7 +20182,7 @@
       <c r="E356" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="F356" s="23"/>
+      <c r="F356" s="39"/>
       <c r="G356" s="24"/>
       <c r="H356" s="24"/>
       <c r="I356" s="24"/>
@@ -20216,7 +20216,7 @@
       <c r="E357" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="F357" s="23"/>
+      <c r="F357" s="39"/>
       <c r="G357" s="24"/>
       <c r="H357" s="24"/>
       <c r="I357" s="24"/>
@@ -20250,7 +20250,7 @@
       <c r="E358" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="F358" s="23"/>
+      <c r="F358" s="39"/>
       <c r="G358" s="24"/>
       <c r="H358" s="24"/>
       <c r="I358" s="24"/>
@@ -20284,7 +20284,7 @@
       <c r="E359" s="22" t="s">
         <v>724</v>
       </c>
-      <c r="F359" s="23"/>
+      <c r="F359" s="39"/>
       <c r="G359" s="24"/>
       <c r="H359" s="24"/>
       <c r="I359" s="24"/>
@@ -20318,7 +20318,7 @@
       <c r="E360" s="22" t="s">
         <v>726</v>
       </c>
-      <c r="F360" s="23"/>
+      <c r="F360" s="39"/>
       <c r="G360" s="24"/>
       <c r="H360" s="24"/>
       <c r="I360" s="24"/>
@@ -20352,7 +20352,7 @@
       <c r="E361" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="F361" s="23"/>
+      <c r="F361" s="39"/>
       <c r="G361" s="24"/>
       <c r="H361" s="24"/>
       <c r="I361" s="24"/>
@@ -20386,7 +20386,7 @@
       <c r="E362" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="F362" s="23"/>
+      <c r="F362" s="39"/>
       <c r="G362" s="24"/>
       <c r="H362" s="24"/>
       <c r="I362" s="24"/>
@@ -20420,7 +20420,7 @@
       <c r="E363" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="F363" s="23"/>
+      <c r="F363" s="39"/>
       <c r="G363" s="24"/>
       <c r="H363" s="24"/>
       <c r="I363" s="24"/>
@@ -20454,7 +20454,7 @@
       <c r="E364" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="F364" s="23"/>
+      <c r="F364" s="39"/>
       <c r="G364" s="24"/>
       <c r="H364" s="24"/>
       <c r="I364" s="24"/>
@@ -20488,7 +20488,7 @@
       <c r="E365" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="F365" s="23"/>
+      <c r="F365" s="39"/>
       <c r="G365" s="24"/>
       <c r="H365" s="24"/>
       <c r="I365" s="24"/>
@@ -20522,7 +20522,7 @@
       <c r="E366" s="22" t="s">
         <v>738</v>
       </c>
-      <c r="F366" s="23"/>
+      <c r="F366" s="39"/>
       <c r="G366" s="24"/>
       <c r="H366" s="24"/>
       <c r="I366" s="24"/>
@@ -20556,7 +20556,7 @@
       <c r="E367" s="22" t="s">
         <v>740</v>
       </c>
-      <c r="F367" s="23"/>
+      <c r="F367" s="39"/>
       <c r="G367" s="24"/>
       <c r="H367" s="24"/>
       <c r="I367" s="24"/>
@@ -20590,7 +20590,7 @@
       <c r="E368" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="F368" s="23"/>
+      <c r="F368" s="39"/>
       <c r="G368" s="24"/>
       <c r="H368" s="24"/>
       <c r="I368" s="24"/>
@@ -20624,7 +20624,7 @@
       <c r="E369" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="F369" s="23"/>
+      <c r="F369" s="39"/>
       <c r="G369" s="24"/>
       <c r="H369" s="24"/>
       <c r="I369" s="24"/>
@@ -20658,7 +20658,7 @@
       <c r="E370" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="F370" s="23"/>
+      <c r="F370" s="39"/>
       <c r="G370" s="24"/>
       <c r="H370" s="24"/>
       <c r="I370" s="24"/>
@@ -20692,7 +20692,7 @@
       <c r="E371" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="F371" s="23"/>
+      <c r="F371" s="39"/>
       <c r="G371" s="24"/>
       <c r="H371" s="24"/>
       <c r="I371" s="24"/>
@@ -20726,7 +20726,7 @@
       <c r="E372" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="F372" s="23"/>
+      <c r="F372" s="39"/>
       <c r="G372" s="24"/>
       <c r="H372" s="24"/>
       <c r="I372" s="24"/>
@@ -20760,7 +20760,7 @@
       <c r="E373" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="F373" s="23"/>
+      <c r="F373" s="39"/>
       <c r="G373" s="24"/>
       <c r="H373" s="24"/>
       <c r="I373" s="24"/>
@@ -20794,7 +20794,7 @@
       <c r="E374" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="F374" s="23"/>
+      <c r="F374" s="39"/>
       <c r="G374" s="24"/>
       <c r="H374" s="24"/>
       <c r="I374" s="24"/>
@@ -20826,19 +20826,19 @@
         <v>755</v>
       </c>
       <c r="E375" s="22" t="s">
-        <v>909</v>
-      </c>
-      <c r="F375" s="23">
+        <v>885</v>
+      </c>
+      <c r="F375" s="39">
         <v>45342</v>
       </c>
       <c r="G375" s="24" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="H375" s="24" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="I375" s="24" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="J375" s="25" t="s">
         <v>137</v>
@@ -21043,16 +21043,16 @@
         <v>860</v>
       </c>
       <c r="F381" s="39">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>888</v>
+        <v>917</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>137</v>
@@ -21104,7 +21104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20">
         <v>376</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>824</v>
       </c>
       <c r="K383" s="41" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
@@ -25800,10 +25800,9 @@
         <filter val="VALIDAZIONE"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2">
+    <filterColumn colId="9">
       <filters>
-        <filter val="LAB"/>
-        <filter val="RSA"/>
+        <filter val="SI"/>
       </filters>
     </filterColumn>
   </autoFilter>
